--- a/biology/Botanique/Schefflera_hierniana/Schefflera_hierniana.xlsx
+++ b/biology/Botanique/Schefflera_hierniana/Schefflera_hierniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schefflera hierniana Harms est une espèce de plantes de la famille des Araliaceae et du genre Schefflera, présente en Afrique tropicale. 
-D'abord considérée comme synonyme de Schefflera barteri, elle en a été dissociée par David Gamman Frodin (es) en 2004[3], mais des travaux plus récents (2017) semblent remettre en cause ce choix[4].
+D'abord considérée comme synonyme de Schefflera barteri, elle en a été dissociée par David Gamman Frodin (es) en 2004, mais des travaux plus récents (2017) semblent remettre en cause ce choix.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique hierniana rend hommage au botaniste William Philip Hiern.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste épiphyte grimpant dont la hauteur est comprise entre 4 et 8 m[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste épiphyte grimpant dont la hauteur est comprise entre 4 et 8 m.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, jugée vulnérable, l'espèce est présente principalement au Cameroun sur six sites dans deux régions (Nord-Ouest, Sud-Ouest), également sur un site en Guinée équatoriale sur l'île de Bioko[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, jugée vulnérable, l'espèce est présente principalement au Cameroun sur six sites dans deux régions (Nord-Ouest, Sud-Ouest), également sur un site en Guinée équatoriale sur l'île de Bioko.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les monts Lebialem au Cameroun, elle est utilisée pour son bois et à des fins médicinales[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les monts Lebialem au Cameroun, elle est utilisée pour son bois et à des fins médicinales.
 </t>
         </is>
       </c>
